--- a/Banco Central/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
+++ b/Banco Central/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
@@ -982,13 +982,13 @@
         <v>84.59999999999999</v>
       </c>
       <c r="G16">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="H16">
         <v>85.8</v>
       </c>
       <c r="I16">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="J16">
         <v>84.3</v>
@@ -1206,7 +1206,7 @@
         <v>107.2</v>
       </c>
       <c r="G23">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="H23">
         <v>109.9</v>
@@ -1238,7 +1238,7 @@
         <v>110.1</v>
       </c>
       <c r="G24">
-        <v>113.6</v>
+        <v>113.5</v>
       </c>
       <c r="H24">
         <v>114</v>
@@ -1302,7 +1302,7 @@
         <v>102.8</v>
       </c>
       <c r="G26">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="H26">
         <v>107.1</v>
